--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf7</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H2">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>1.305256325810667</v>
+        <v>0.4746019194337778</v>
       </c>
       <c r="R2">
-        <v>11.747306932296</v>
+        <v>4.271417274904</v>
       </c>
       <c r="S2">
-        <v>0.2959211466465043</v>
+        <v>0.06512126682555208</v>
       </c>
       <c r="T2">
-        <v>0.2959211466465043</v>
+        <v>0.06512126682555208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H3">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>2.103840644373333</v>
+        <v>0.8045081911822222</v>
       </c>
       <c r="R3">
-        <v>18.93456579936</v>
+        <v>7.24057372064</v>
       </c>
       <c r="S3">
-        <v>0.4769721651858779</v>
+        <v>0.1103884970457435</v>
       </c>
       <c r="T3">
-        <v>0.4769721651858778</v>
+        <v>0.1103884970457435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H4">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>0.6646737345586666</v>
+        <v>0.7653306669666666</v>
       </c>
       <c r="R4">
-        <v>5.982063611028</v>
+        <v>6.8879760027</v>
       </c>
       <c r="S4">
-        <v>0.1506914847198724</v>
+        <v>0.1050128550528718</v>
       </c>
       <c r="T4">
-        <v>0.1506914847198724</v>
+        <v>0.1050128550528718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.076196</v>
+        <v>0.02913733333333333</v>
       </c>
       <c r="H5">
-        <v>0.228588</v>
+        <v>0.087412</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2991461473965196</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>0.337054072744</v>
+        <v>0.1357277398071111</v>
       </c>
       <c r="R5">
-        <v>3.033486654696</v>
+        <v>1.221549658264</v>
       </c>
       <c r="S5">
-        <v>0.07641520344774541</v>
+        <v>0.01862352847235225</v>
       </c>
       <c r="T5">
-        <v>0.07641520344774538</v>
+        <v>0.01862352847235225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.204793</v>
+      </c>
+      <c r="I6">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J6">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>16.28844733333333</v>
+      </c>
+      <c r="N6">
+        <v>48.865342</v>
+      </c>
+      <c r="O6">
+        <v>0.2176904746803693</v>
+      </c>
+      <c r="P6">
+        <v>0.2176904746803693</v>
+      </c>
+      <c r="Q6">
+        <v>1.111919998245111</v>
+      </c>
+      <c r="R6">
+        <v>10.007279984206</v>
+      </c>
+      <c r="S6">
+        <v>0.1525692078548173</v>
+      </c>
+      <c r="T6">
+        <v>0.1525692078548173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.204793</v>
+      </c>
+      <c r="I7">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J7">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.61090666666666</v>
+      </c>
+      <c r="N7">
+        <v>82.83271999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.3690119294748028</v>
+      </c>
+      <c r="P7">
+        <v>0.3690119294748029</v>
+      </c>
+      <c r="Q7">
+        <v>1.884840136328889</v>
+      </c>
+      <c r="R7">
+        <v>16.96356122696</v>
+      </c>
+      <c r="S7">
+        <v>0.2586234324290594</v>
+      </c>
+      <c r="T7">
+        <v>0.2586234324290594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.204793</v>
+      </c>
+      <c r="I8">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J8">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>26.266325</v>
+      </c>
+      <c r="N8">
+        <v>78.798975</v>
+      </c>
+      <c r="O8">
+        <v>0.3510419771967738</v>
+      </c>
+      <c r="P8">
+        <v>0.3510419771967739</v>
+      </c>
+      <c r="Q8">
+        <v>1.793053165241666</v>
+      </c>
+      <c r="R8">
+        <v>16.137478487175</v>
+      </c>
+      <c r="S8">
+        <v>0.2460291221439021</v>
+      </c>
+      <c r="T8">
+        <v>0.2460291221439021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06826433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.204793</v>
+      </c>
+      <c r="I9">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="J9">
+        <v>0.7008538526034804</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.658207333333333</v>
+      </c>
+      <c r="N9">
+        <v>13.974622</v>
+      </c>
+      <c r="O9">
+        <v>0.06225561864805391</v>
+      </c>
+      <c r="P9">
+        <v>0.06225561864805392</v>
+      </c>
+      <c r="Q9">
+        <v>0.3179894181384444</v>
+      </c>
+      <c r="R9">
+        <v>2.861904763246</v>
+      </c>
+      <c r="S9">
+        <v>0.04363209017570167</v>
+      </c>
+      <c r="T9">
+        <v>0.04363209017570167</v>
       </c>
     </row>
   </sheetData>
